--- a/target/classes/loginexcel.xlsx
+++ b/target/classes/loginexcel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -22,13 +22,13 @@
     <t>expected message</t>
   </si>
   <si>
-    <t>tester1234@user.com</t>
-  </si>
-  <si>
-    <t>@CODING123#</t>
-  </si>
-  <si>
-    <t>your logged in</t>
+    <t>frame2@test.com</t>
+  </si>
+  <si>
+    <t>@dsalgo101</t>
+  </si>
+  <si>
+    <t>your signed in</t>
   </si>
   <si>
     <t>tester12@user.com</t>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>Invalid username and password</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>ddddd11</t>
   </si>
 </sst>
 </file>
@@ -332,6 +341,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
